--- a/public/assets/files/Planilha para cadastro de alunos-BibliotecaDoSaber.xlsx
+++ b/public/assets/files/Planilha para cadastro de alunos-BibliotecaDoSaber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hacks\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\biblioteca-do-saber\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E37077-1BEF-4369-ABB4-A5FBDC29F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A948F60D-8089-41DF-BA1A-0BC22AD461DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{83C7B96F-FA26-4226-8ECB-BC03153C759F}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE09BF47-1336-4525-95D4-097CD0120C14}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -468,6 +470,12 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formato de data inválido" error="Digite a data no seguinte formato:_x000a__x000a_yyyy-mm-dd_x000a__x000a_ex: 2024-05-26_x000a_" sqref="E1:E1048576" xr:uid="{1A79C95E-32BB-4887-8CC6-3E47C6E7AFCF}">
+      <formula1>16545</formula1>
+      <formula2>80866</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>